--- a/biology/Botanique/Mandevilla_boliviensis/Mandevilla_boliviensis.xlsx
+++ b/biology/Botanique/Mandevilla_boliviensis/Mandevilla_boliviensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mandevilla boliviensis est une espèce de plantes à fleurs de la famille des Apocynaceae et du genre Mandevilla qui est originaire de Bolivie, du Costa Rica et d'Équateur.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce épiphyte qui pousse en buissons peut atteindre 4 mètres de hauteur dans son milieu d'origine, et 2 mètres dans l'hémisphère nord tempéré. Ses grandes fleurs blanches en trompettes à cinq pétales et au centre jaune fleurissent d'avril à début novembre en région méditerranéenne.
 </t>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dipladenia bella Pittier
 Dipladenia boliviensis (Hemsl.) Hook.f.
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de nombreux cultivars pour les jardins ornementaux, dont 'Cosmos White'.
 Cette plante doit être cultivée en serre l'hiver, car elle ne supporte pas les températures en dessous de 10°.
